--- a/datafile/Assignment1.xlsx
+++ b/datafile/Assignment1.xlsx
@@ -24,21 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>AB-440-BA</t>
-  </si>
-  <si>
-    <t>AA-111-AA</t>
-  </si>
-  <si>
-    <t>AK-9265-KA</t>
-  </si>
-  <si>
-    <t>AH-282-AH</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>asd</t>
+  </si>
+  <si>
+    <t>ABC100</t>
+  </si>
+  <si>
+    <t>ABC123</t>
+  </si>
+  <si>
+    <t>ABC120</t>
+  </si>
+  <si>
+    <t>AAA111</t>
+  </si>
+  <si>
+    <t>KKK111</t>
+  </si>
+  <si>
+    <t>ABA111</t>
   </si>
 </sst>
 </file>
@@ -74,9 +80,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -373,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -385,7 +392,7 @@
         <v>82.900077999999993</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -397,7 +404,7 @@
         <v>12.56738</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -409,21 +416,43 @@
         <v>-31.271832100000001</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>39.074199999999998</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21.824311999999999</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>39.074199999999998</v>
+      </c>
+      <c r="B6">
+        <v>21.822222</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>30.11111</v>
+      </c>
+      <c r="B7" s="1">
+        <v>31.22222</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>39.074199999999998</v>
-      </c>
-      <c r="B5" s="1">
-        <v>21.824311999999999</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
